--- a/biology/Mycologie/Clair_Alan_Brown/Clair_Alan_Brown.xlsx
+++ b/biology/Mycologie/Clair_Alan_Brown/Clair_Alan_Brown.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Clair Alan Brown est un botaniste américain, né le 16 août 1903 à Port Allegany et mort en 1982.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Clair Alan Brown est le fils de Charles Melvin et de Jennie H. née Burrows. Il obtient son Bachelor of Sciences avec mention au New York State College of Forestry en 1925, puis son Master of Arts à l’université du Michigan en 1926 et son doctorat en 1934. Il se marie avec Maude Nichols le 4 septembre 1926 (celle-ci meurt en 1962).
 Il entre à l’université d’État de Bâton-Rouge en 1926 et y enseigne la botanique à partir de 1944. Il exerce des fonctions de conseiller auprès d’industriels du pétrole, du papier et des industries de la filière bois.
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Brown est notamment l’auteur de :
 Avec Donovan Stewart Correll (1908-1983) de Ferns and Fern Allies Trees and Shrubs (1942).
@@ -578,7 +594,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Allen G. Debus (dir.) (1968). World Who’s Who in Science. A Biographical Dictionary of Notable Scientists from Antiquity to the Present. Marquis-Who’s Who (Chicago) : xvi + 1855 p.</t>
         </is>
